--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Hardware_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hw\Hardware_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43676EC-BE1D-4628-B44C-10EB0CD60A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20064" windowHeight="7764"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20060" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,19 +393,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -424,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>

--- a/时间安排.xlsx
+++ b/时间安排.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hw\Hardware_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Hardware_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43676EC-BE1D-4628-B44C-10EB0CD60A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20060" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20064" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>57条</t>
   </si>
@@ -52,13 +51,17 @@
   </si>
   <si>
     <t>5~7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31号完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,19 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,7 +428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -440,6 +443,11 @@
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
